--- a/result/12_pred.xlsx
+++ b/result/12_pred.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B487"/>
+  <dimension ref="A1:B356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,3890 +447,2842 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>486796.519081849</v>
+        <v>486790.5948542436</v>
       </c>
       <c r="B2" t="n">
-        <v>3482643.075424507</v>
+        <v>3482644.025965027</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>486781.7085128356</v>
+        <v>486766.897943822</v>
       </c>
       <c r="B3" t="n">
-        <v>3482645.451775806</v>
+        <v>3482647.828127105</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>486766.897943822</v>
+        <v>486743.2010334005</v>
       </c>
       <c r="B4" t="n">
-        <v>3482647.828127105</v>
+        <v>3482651.630289184</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>486752.0873748086</v>
+        <v>486719.5041229789</v>
       </c>
       <c r="B5" t="n">
-        <v>3482650.204478404</v>
+        <v>3482655.432451263</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>486737.2768057951</v>
+        <v>486695.8072125574</v>
       </c>
       <c r="B6" t="n">
-        <v>3482652.580829704</v>
+        <v>3482659.234613342</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>486722.4662367816</v>
+        <v>486672.1103021358</v>
       </c>
       <c r="B7" t="n">
-        <v>3482654.957181003</v>
+        <v>3482663.03677542</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>486707.6556677682</v>
+        <v>486648.4133917143</v>
       </c>
       <c r="B8" t="n">
-        <v>3482657.333532302</v>
+        <v>3482666.838937499</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>486692.8450987547</v>
+        <v>486624.7164812927</v>
       </c>
       <c r="B9" t="n">
-        <v>3482659.709883601</v>
+        <v>3482670.641099578</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>486678.0345297412</v>
+        <v>486601.0195708711</v>
       </c>
       <c r="B10" t="n">
-        <v>3482662.086234901</v>
+        <v>3482674.443261656</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>486663.2239607277</v>
+        <v>486577.3226604496</v>
       </c>
       <c r="B11" t="n">
-        <v>3482664.4625862</v>
+        <v>3482678.245423735</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>486648.4133917143</v>
+        <v>486553.6257500281</v>
       </c>
       <c r="B12" t="n">
-        <v>3482666.838937499</v>
+        <v>3482682.047585814</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>486633.6028227008</v>
+        <v>486529.9288396065</v>
       </c>
       <c r="B13" t="n">
-        <v>3482669.215288798</v>
+        <v>3482685.849747892</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>486618.7922536873</v>
+        <v>486506.2319291849</v>
       </c>
       <c r="B14" t="n">
-        <v>3482671.591640098</v>
+        <v>3482689.651909971</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>486603.9816846739</v>
+        <v>486482.5350187634</v>
       </c>
       <c r="B15" t="n">
-        <v>3482673.967991396</v>
+        <v>3482693.45407205</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>486589.1711156604</v>
+        <v>486458.8381083418</v>
       </c>
       <c r="B16" t="n">
-        <v>3482676.344342696</v>
+        <v>3482697.256234128</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>486574.3605466469</v>
+        <v>486435.1411979203</v>
       </c>
       <c r="B17" t="n">
-        <v>3482678.720693995</v>
+        <v>3482701.058396207</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>486559.5499776334</v>
+        <v>486411.4442874987</v>
       </c>
       <c r="B18" t="n">
-        <v>3482681.097045294</v>
+        <v>3482704.860558286</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>486544.7394086199</v>
+        <v>486387.7473770771</v>
       </c>
       <c r="B19" t="n">
-        <v>3482683.473396593</v>
+        <v>3482708.662720365</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>486529.9288396065</v>
+        <v>486364.0504666556</v>
       </c>
       <c r="B20" t="n">
-        <v>3482685.849747892</v>
+        <v>3482712.464882443</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>486515.118270593</v>
+        <v>486340.353556234</v>
       </c>
       <c r="B21" t="n">
-        <v>3482688.226099192</v>
+        <v>3482716.267044522</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>486500.3077015795</v>
+        <v>486316.6566458124</v>
       </c>
       <c r="B22" t="n">
-        <v>3482690.602450491</v>
+        <v>3482720.069206601</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>486485.4971325661</v>
+        <v>486292.9597353909</v>
       </c>
       <c r="B23" t="n">
-        <v>3482692.97880179</v>
+        <v>3482723.871368679</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>486470.6865635526</v>
+        <v>486794.3970163223</v>
       </c>
       <c r="B24" t="n">
-        <v>3482695.355153089</v>
+        <v>3482667.722875448</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>486455.8759945391</v>
+        <v>486770.7001059008</v>
       </c>
       <c r="B25" t="n">
-        <v>3482697.731504388</v>
+        <v>3482671.525037527</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>486441.0654255257</v>
+        <v>486747.0031954792</v>
       </c>
       <c r="B26" t="n">
-        <v>3482700.107855687</v>
+        <v>3482675.327199606</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>486426.2548565122</v>
+        <v>486723.3062850576</v>
       </c>
       <c r="B27" t="n">
-        <v>3482702.484206987</v>
+        <v>3482679.129361684</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>486411.4442874987</v>
+        <v>486699.6093746361</v>
       </c>
       <c r="B28" t="n">
-        <v>3482704.860558286</v>
+        <v>3482682.931523763</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>486396.6337184852</v>
+        <v>486675.9124642145</v>
       </c>
       <c r="B29" t="n">
-        <v>3482707.236909585</v>
+        <v>3482686.733685842</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>486381.8231494717</v>
+        <v>486652.215553793</v>
       </c>
       <c r="B30" t="n">
-        <v>3482709.613260884</v>
+        <v>3482690.53584792</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>486367.0125804582</v>
+        <v>486628.5186433714</v>
       </c>
       <c r="B31" t="n">
-        <v>3482711.989612184</v>
+        <v>3482694.338009999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>486352.2020114448</v>
+        <v>486604.8217329499</v>
       </c>
       <c r="B32" t="n">
-        <v>3482714.365963483</v>
+        <v>3482698.140172078</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>486337.3914424313</v>
+        <v>486581.1248225283</v>
       </c>
       <c r="B33" t="n">
-        <v>3482716.742314782</v>
+        <v>3482701.942334156</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>486322.5808734178</v>
+        <v>486557.4279121067</v>
       </c>
       <c r="B34" t="n">
-        <v>3482719.118666081</v>
+        <v>3482705.744496235</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>486307.7703044044</v>
+        <v>486533.7310016852</v>
       </c>
       <c r="B35" t="n">
-        <v>3482721.49501738</v>
+        <v>3482709.546658314</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>486292.9597353909</v>
+        <v>486510.0340912636</v>
       </c>
       <c r="B36" t="n">
-        <v>3482723.871368679</v>
+        <v>3482713.348820393</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>486278.1491663774</v>
+        <v>486486.3371808421</v>
       </c>
       <c r="B37" t="n">
-        <v>3482726.247719978</v>
+        <v>3482717.150982471</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>486798.8954331482</v>
+        <v>486462.6402704205</v>
       </c>
       <c r="B38" t="n">
-        <v>3482657.885993521</v>
+        <v>3482720.95314455</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>486784.0848641347</v>
+        <v>486438.9433599989</v>
       </c>
       <c r="B39" t="n">
-        <v>3482660.26234482</v>
+        <v>3482724.755306629</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>486769.2742951213</v>
+        <v>486415.2464495774</v>
       </c>
       <c r="B40" t="n">
-        <v>3482662.638696119</v>
+        <v>3482728.557468708</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>486754.4637261078</v>
+        <v>486391.5495391559</v>
       </c>
       <c r="B41" t="n">
-        <v>3482665.015047418</v>
+        <v>3482732.359630786</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>486739.6531570943</v>
+        <v>486367.8526287343</v>
       </c>
       <c r="B42" t="n">
-        <v>3482667.391398717</v>
+        <v>3482736.161792865</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>486724.8425880808</v>
+        <v>486344.1557183127</v>
       </c>
       <c r="B43" t="n">
-        <v>3482669.767750016</v>
+        <v>3482739.963954944</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>486710.0320190673</v>
+        <v>486320.4588078912</v>
       </c>
       <c r="B44" t="n">
-        <v>3482672.144101316</v>
+        <v>3482743.766117022</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>486695.2214500539</v>
+        <v>486296.7618974696</v>
       </c>
       <c r="B45" t="n">
-        <v>3482674.520452615</v>
+        <v>3482747.568279101</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>486680.4108810404</v>
+        <v>486798.199178401</v>
       </c>
       <c r="B46" t="n">
-        <v>3482676.896803914</v>
+        <v>3482691.41978587</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>486665.6003120269</v>
+        <v>486774.5022679794</v>
       </c>
       <c r="B47" t="n">
-        <v>3482679.273155213</v>
+        <v>3482695.221947948</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>486650.7897430134</v>
+        <v>486750.8053575579</v>
       </c>
       <c r="B48" t="n">
-        <v>3482681.649506513</v>
+        <v>3482699.024110027</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>486635.979174</v>
+        <v>486727.1084471364</v>
       </c>
       <c r="B49" t="n">
-        <v>3482684.025857812</v>
+        <v>3482702.826272106</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>486621.1686049865</v>
+        <v>486703.4115367148</v>
       </c>
       <c r="B50" t="n">
-        <v>3482686.402209111</v>
+        <v>3482706.628434184</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>486606.358035973</v>
+        <v>486679.7146262932</v>
       </c>
       <c r="B51" t="n">
-        <v>3482688.77856041</v>
+        <v>3482710.430596263</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>486591.5474669596</v>
+        <v>486656.0177158717</v>
       </c>
       <c r="B52" t="n">
-        <v>3482691.154911709</v>
+        <v>3482714.232758342</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>486576.7368979461</v>
+        <v>486632.3208054501</v>
       </c>
       <c r="B53" t="n">
-        <v>3482693.531263008</v>
+        <v>3482718.034920421</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>486561.9263289326</v>
+        <v>486608.6238950285</v>
       </c>
       <c r="B54" t="n">
-        <v>3482695.907614307</v>
+        <v>3482721.8370825</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>486547.1157599192</v>
+        <v>486584.926984607</v>
       </c>
       <c r="B55" t="n">
-        <v>3482698.283965607</v>
+        <v>3482725.639244578</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>486532.3051909056</v>
+        <v>486561.2300741854</v>
       </c>
       <c r="B56" t="n">
-        <v>3482700.660316906</v>
+        <v>3482729.441406657</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>486517.4946218922</v>
+        <v>486537.5331637639</v>
       </c>
       <c r="B57" t="n">
-        <v>3482703.036668205</v>
+        <v>3482733.243568736</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>486502.6840528787</v>
+        <v>486513.8362533423</v>
       </c>
       <c r="B58" t="n">
-        <v>3482705.413019504</v>
+        <v>3482737.045730814</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>486487.8734838652</v>
+        <v>486490.1393429207</v>
       </c>
       <c r="B59" t="n">
-        <v>3482707.789370804</v>
+        <v>3482740.847892893</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>486473.0629148518</v>
+        <v>486466.4424324992</v>
       </c>
       <c r="B60" t="n">
-        <v>3482710.165722103</v>
+        <v>3482744.650054972</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>486458.2523458383</v>
+        <v>486442.7455220777</v>
       </c>
       <c r="B61" t="n">
-        <v>3482712.542073402</v>
+        <v>3482748.45221705</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>486443.4417768248</v>
+        <v>486419.0486116561</v>
       </c>
       <c r="B62" t="n">
-        <v>3482714.918424701</v>
+        <v>3482752.254379129</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>486428.6312078114</v>
+        <v>486395.3517012345</v>
       </c>
       <c r="B63" t="n">
-        <v>3482717.294776</v>
+        <v>3482756.056541208</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>486413.8206387979</v>
+        <v>486371.654790813</v>
       </c>
       <c r="B64" t="n">
-        <v>3482719.671127299</v>
+        <v>3482759.858703286</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>486399.0100697844</v>
+        <v>486347.9578803914</v>
       </c>
       <c r="B65" t="n">
-        <v>3482722.047478599</v>
+        <v>3482763.660865365</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>486384.1995007709</v>
+        <v>486324.2609699699</v>
       </c>
       <c r="B66" t="n">
-        <v>3482724.423829898</v>
+        <v>3482767.463027444</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>486369.3889317575</v>
+        <v>486300.5640595483</v>
       </c>
       <c r="B67" t="n">
-        <v>3482726.800181197</v>
+        <v>3482771.265189522</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>486354.578362744</v>
+        <v>486802.0013404797</v>
       </c>
       <c r="B68" t="n">
-        <v>3482729.176532496</v>
+        <v>3482715.116696292</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>486339.7677937305</v>
+        <v>486778.3044300582</v>
       </c>
       <c r="B69" t="n">
-        <v>3482731.552883795</v>
+        <v>3482718.91885837</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>486324.957224717</v>
+        <v>486754.6075196366</v>
       </c>
       <c r="B70" t="n">
-        <v>3482733.929235095</v>
+        <v>3482722.721020449</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>486310.1466557035</v>
+        <v>486730.910609215</v>
       </c>
       <c r="B71" t="n">
-        <v>3482736.305586393</v>
+        <v>3482726.523182528</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>486295.3360866901</v>
+        <v>486707.2136987935</v>
       </c>
       <c r="B72" t="n">
-        <v>3482738.681937693</v>
+        <v>3482730.325344606</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>486280.5255176766</v>
+        <v>486683.5167883719</v>
       </c>
       <c r="B73" t="n">
-        <v>3482741.058288992</v>
+        <v>3482734.127506685</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>486801.2717844474</v>
+        <v>486659.8198779504</v>
       </c>
       <c r="B74" t="n">
-        <v>3482672.696562534</v>
+        <v>3482737.929668764</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>486786.4612154339</v>
+        <v>486636.1229675288</v>
       </c>
       <c r="B75" t="n">
-        <v>3482675.072913833</v>
+        <v>3482741.731830842</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>486771.6506464204</v>
+        <v>486612.4260571072</v>
       </c>
       <c r="B76" t="n">
-        <v>3482677.449265132</v>
+        <v>3482745.533992921</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>486756.840077407</v>
+        <v>486588.7291466857</v>
       </c>
       <c r="B77" t="n">
-        <v>3482679.825616431</v>
+        <v>3482749.336155</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>486742.0295083935</v>
+        <v>486565.0322362641</v>
       </c>
       <c r="B78" t="n">
-        <v>3482682.201967731</v>
+        <v>3482753.138317078</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>486727.21893938</v>
+        <v>486541.3353258425</v>
       </c>
       <c r="B79" t="n">
-        <v>3482684.57831903</v>
+        <v>3482756.940479157</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>486712.4083703666</v>
+        <v>486517.638415421</v>
       </c>
       <c r="B80" t="n">
-        <v>3482686.954670329</v>
+        <v>3482760.742641236</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>486697.5978013531</v>
+        <v>486493.9415049995</v>
       </c>
       <c r="B81" t="n">
-        <v>3482689.331021628</v>
+        <v>3482764.544803314</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>486682.7872323396</v>
+        <v>486470.2445945779</v>
       </c>
       <c r="B82" t="n">
-        <v>3482691.707372928</v>
+        <v>3482768.346965393</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>486667.9766633261</v>
+        <v>486446.5476841563</v>
       </c>
       <c r="B83" t="n">
-        <v>3482694.083724227</v>
+        <v>3482772.149127472</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>486653.1660943126</v>
+        <v>486422.8507737348</v>
       </c>
       <c r="B84" t="n">
-        <v>3482696.460075526</v>
+        <v>3482775.95128955</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>486638.3555252992</v>
+        <v>486399.1538633132</v>
       </c>
       <c r="B85" t="n">
-        <v>3482698.836426825</v>
+        <v>3482779.753451629</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>486623.5449562857</v>
+        <v>486375.4569528917</v>
       </c>
       <c r="B86" t="n">
-        <v>3482701.212778124</v>
+        <v>3482783.555613708</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>486608.7343872722</v>
+        <v>486351.7600424701</v>
       </c>
       <c r="B87" t="n">
-        <v>3482703.589129423</v>
+        <v>3482787.357775787</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>486593.9238182587</v>
+        <v>486328.0631320485</v>
       </c>
       <c r="B88" t="n">
-        <v>3482705.965480722</v>
+        <v>3482791.159937866</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>486579.1132492453</v>
+        <v>486304.366221627</v>
       </c>
       <c r="B89" t="n">
-        <v>3482708.341832022</v>
+        <v>3482794.962099944</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>486564.3026802318</v>
+        <v>486805.8035025584</v>
       </c>
       <c r="B90" t="n">
-        <v>3482710.718183321</v>
+        <v>3482738.813606713</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>486549.4921112183</v>
+        <v>486782.1065921368</v>
       </c>
       <c r="B91" t="n">
-        <v>3482713.09453462</v>
+        <v>3482742.615768792</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>486534.6815422049</v>
+        <v>486758.4096817153</v>
       </c>
       <c r="B92" t="n">
-        <v>3482715.470885919</v>
+        <v>3482746.41793087</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>486519.8709731914</v>
+        <v>486734.7127712937</v>
       </c>
       <c r="B93" t="n">
-        <v>3482717.847237219</v>
+        <v>3482750.220092949</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>486505.0604041779</v>
+        <v>486711.0158608722</v>
       </c>
       <c r="B94" t="n">
-        <v>3482720.223588518</v>
+        <v>3482754.022255028</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>486490.2498351644</v>
+        <v>486687.3189504506</v>
       </c>
       <c r="B95" t="n">
-        <v>3482722.599939817</v>
+        <v>3482757.824417106</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>486475.4392661509</v>
+        <v>486663.622040029</v>
       </c>
       <c r="B96" t="n">
-        <v>3482724.976291116</v>
+        <v>3482761.626579185</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>486460.6286971375</v>
+        <v>486639.9251296075</v>
       </c>
       <c r="B97" t="n">
-        <v>3482727.352642415</v>
+        <v>3482765.428741264</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>486445.818128124</v>
+        <v>486616.228219186</v>
       </c>
       <c r="B98" t="n">
-        <v>3482729.728993714</v>
+        <v>3482769.230903342</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>486431.0075591105</v>
+        <v>486592.5313087644</v>
       </c>
       <c r="B99" t="n">
-        <v>3482732.105345014</v>
+        <v>3482773.033065421</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>486416.1969900971</v>
+        <v>486568.8343983428</v>
       </c>
       <c r="B100" t="n">
-        <v>3482734.481696313</v>
+        <v>3482776.8352275</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>486401.3864210836</v>
+        <v>486545.1374879213</v>
       </c>
       <c r="B101" t="n">
-        <v>3482736.858047612</v>
+        <v>3482780.637389579</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>486386.5758520701</v>
+        <v>486521.4405774997</v>
       </c>
       <c r="B102" t="n">
-        <v>3482739.234398911</v>
+        <v>3482784.439551658</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>486371.7652830567</v>
+        <v>486497.7436670781</v>
       </c>
       <c r="B103" t="n">
-        <v>3482741.61075021</v>
+        <v>3482788.241713736</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>486356.9547140432</v>
+        <v>486474.0467566566</v>
       </c>
       <c r="B104" t="n">
-        <v>3482743.98710151</v>
+        <v>3482792.043875815</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>486342.1441450297</v>
+        <v>486450.349846235</v>
       </c>
       <c r="B105" t="n">
-        <v>3482746.363452809</v>
+        <v>3482795.846037894</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>486327.3335760162</v>
+        <v>486426.6529358135</v>
       </c>
       <c r="B106" t="n">
-        <v>3482748.739804108</v>
+        <v>3482799.648199972</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>486312.5230070027</v>
+        <v>486402.9560253919</v>
       </c>
       <c r="B107" t="n">
-        <v>3482751.116155407</v>
+        <v>3482803.450362051</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>486297.7124379892</v>
+        <v>486379.2591149703</v>
       </c>
       <c r="B108" t="n">
-        <v>3482753.492506706</v>
+        <v>3482807.25252413</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>486282.9018689758</v>
+        <v>486355.5622045488</v>
       </c>
       <c r="B109" t="n">
-        <v>3482755.868858005</v>
+        <v>3482811.054686208</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>486803.6481357465</v>
+        <v>486331.8652941273</v>
       </c>
       <c r="B110" t="n">
-        <v>3482687.507131548</v>
+        <v>3482814.856848287</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>486788.8375667331</v>
+        <v>486308.1683837057</v>
       </c>
       <c r="B111" t="n">
-        <v>3482689.883482847</v>
+        <v>3482818.659010366</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>486774.0269977196</v>
+        <v>486620.0303812646</v>
       </c>
       <c r="B112" t="n">
-        <v>3482692.259834146</v>
+        <v>3482792.927813764</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>486759.2164287061</v>
+        <v>486596.3334708431</v>
       </c>
       <c r="B113" t="n">
-        <v>3482694.636185445</v>
+        <v>3482796.729975843</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>486744.4058596927</v>
+        <v>486572.6365604215</v>
       </c>
       <c r="B114" t="n">
-        <v>3482697.012536744</v>
+        <v>3482800.532137922</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>486729.5952906792</v>
+        <v>486548.93965</v>
       </c>
       <c r="B115" t="n">
-        <v>3482699.388888043</v>
+        <v>3482804.3343</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>486714.7847216657</v>
+        <v>486525.2427395784</v>
       </c>
       <c r="B116" t="n">
-        <v>3482701.765239343</v>
+        <v>3482808.136462079</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>486699.9741526523</v>
+        <v>486501.5458291568</v>
       </c>
       <c r="B117" t="n">
-        <v>3482704.141590642</v>
+        <v>3482811.938624158</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>486685.1635836388</v>
+        <v>486477.8489187353</v>
       </c>
       <c r="B118" t="n">
-        <v>3482706.517941941</v>
+        <v>3482815.740786236</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>486670.3530146253</v>
+        <v>486454.1520083137</v>
       </c>
       <c r="B119" t="n">
-        <v>3482708.89429324</v>
+        <v>3482819.542948315</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>486655.5424456118</v>
+        <v>486430.4550978921</v>
       </c>
       <c r="B120" t="n">
-        <v>3482711.27064454</v>
+        <v>3482823.345110394</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>486640.7318765983</v>
+        <v>486406.7581874706</v>
       </c>
       <c r="B121" t="n">
-        <v>3482713.646995839</v>
+        <v>3482827.147272472</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>486625.9213075849</v>
+        <v>486383.0612770491</v>
       </c>
       <c r="B122" t="n">
-        <v>3482716.023347138</v>
+        <v>3482830.949434551</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>486611.1107385714</v>
+        <v>486359.3643666275</v>
       </c>
       <c r="B123" t="n">
-        <v>3482718.399698437</v>
+        <v>3482834.75159663</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>486596.3001695579</v>
+        <v>486335.6674562059</v>
       </c>
       <c r="B124" t="n">
-        <v>3482720.776049736</v>
+        <v>3482838.553758708</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>486581.4896005444</v>
+        <v>486311.9705457844</v>
       </c>
       <c r="B125" t="n">
-        <v>3482723.152401035</v>
+        <v>3482842.355920787</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>486566.679031531</v>
+        <v>486623.8325433433</v>
       </c>
       <c r="B126" t="n">
-        <v>3482725.528752334</v>
+        <v>3482816.624724186</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>486551.8684625175</v>
+        <v>486600.1356329218</v>
       </c>
       <c r="B127" t="n">
-        <v>3482727.905103634</v>
+        <v>3482820.426886264</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>486537.057893504</v>
+        <v>486576.4387225002</v>
       </c>
       <c r="B128" t="n">
-        <v>3482730.281454933</v>
+        <v>3482824.229048343</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>486522.2473244906</v>
+        <v>486552.7418120786</v>
       </c>
       <c r="B129" t="n">
-        <v>3482732.657806232</v>
+        <v>3482828.031210422</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>486507.4367554771</v>
+        <v>486529.0449016571</v>
       </c>
       <c r="B130" t="n">
-        <v>3482735.034157531</v>
+        <v>3482831.8333725</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>486492.6261864636</v>
+        <v>486505.3479912356</v>
       </c>
       <c r="B131" t="n">
-        <v>3482737.410508831</v>
+        <v>3482835.635534579</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>486477.8156174502</v>
+        <v>486481.651080814</v>
       </c>
       <c r="B132" t="n">
-        <v>3482739.78686013</v>
+        <v>3482839.437696658</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>486463.0050484366</v>
+        <v>486457.9541703924</v>
       </c>
       <c r="B133" t="n">
-        <v>3482742.163211429</v>
+        <v>3482843.239858737</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>486448.1944794232</v>
+        <v>486434.2572599709</v>
       </c>
       <c r="B134" t="n">
-        <v>3482744.539562728</v>
+        <v>3482847.042020815</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>486433.3839104097</v>
+        <v>486410.5603495493</v>
       </c>
       <c r="B135" t="n">
-        <v>3482746.915914027</v>
+        <v>3482850.844182894</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>486418.5733413962</v>
+        <v>486386.8634391277</v>
       </c>
       <c r="B136" t="n">
-        <v>3482749.292265326</v>
+        <v>3482854.646344973</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>486403.7627723828</v>
+        <v>486363.1665287062</v>
       </c>
       <c r="B137" t="n">
-        <v>3482751.668616625</v>
+        <v>3482858.448507051</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>486388.9522033693</v>
+        <v>486339.4696182846</v>
       </c>
       <c r="B138" t="n">
-        <v>3482754.044967925</v>
+        <v>3482862.25066913</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>486374.1416343558</v>
+        <v>486315.7727078631</v>
       </c>
       <c r="B139" t="n">
-        <v>3482756.421319224</v>
+        <v>3482866.052831209</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>486359.3310653424</v>
+        <v>486627.634705422</v>
       </c>
       <c r="B140" t="n">
-        <v>3482758.797670523</v>
+        <v>3482840.321634607</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>486344.5204963289</v>
+        <v>486603.9377950004</v>
       </c>
       <c r="B141" t="n">
-        <v>3482761.174021822</v>
+        <v>3482844.123796686</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>486329.7099273154</v>
+        <v>486580.2408845789</v>
       </c>
       <c r="B142" t="n">
-        <v>3482763.550373122</v>
+        <v>3482847.925958765</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>486314.8993583019</v>
+        <v>486556.5439741574</v>
       </c>
       <c r="B143" t="n">
-        <v>3482765.92672442</v>
+        <v>3482851.728120843</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>486300.0887892885</v>
+        <v>486532.8470637358</v>
       </c>
       <c r="B144" t="n">
-        <v>3482768.30307572</v>
+        <v>3482855.530282922</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>486285.278220275</v>
+        <v>486509.1501533142</v>
       </c>
       <c r="B145" t="n">
-        <v>3482770.679427019</v>
+        <v>3482859.332445001</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>486806.0244870458</v>
+        <v>486485.4532428927</v>
       </c>
       <c r="B146" t="n">
-        <v>3482702.317700561</v>
+        <v>3482863.134607079</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>486791.2139180322</v>
+        <v>486461.7563324711</v>
       </c>
       <c r="B147" t="n">
-        <v>3482704.69405186</v>
+        <v>3482866.936769158</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>486776.4033490188</v>
+        <v>486438.0594220496</v>
       </c>
       <c r="B148" t="n">
-        <v>3482707.07040316</v>
+        <v>3482870.738931237</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>486761.5927800053</v>
+        <v>486414.362511628</v>
       </c>
       <c r="B149" t="n">
-        <v>3482709.446754458</v>
+        <v>3482874.541093315</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>486746.7822109918</v>
+        <v>486390.6656012064</v>
       </c>
       <c r="B150" t="n">
-        <v>3482711.823105758</v>
+        <v>3482878.343255394</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>486731.9716419784</v>
+        <v>486366.9686907849</v>
       </c>
       <c r="B151" t="n">
-        <v>3482714.199457057</v>
+        <v>3482882.145417473</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>486717.1610729649</v>
+        <v>486343.2717803633</v>
       </c>
       <c r="B152" t="n">
-        <v>3482716.575808356</v>
+        <v>3482885.947579551</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>486702.3505039514</v>
+        <v>486319.5748699417</v>
       </c>
       <c r="B153" t="n">
-        <v>3482718.952159655</v>
+        <v>3482889.74974163</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>486687.539934938</v>
+        <v>486631.4368675007</v>
       </c>
       <c r="B154" t="n">
-        <v>3482721.328510955</v>
+        <v>3482864.018545029</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>486672.7293659245</v>
+        <v>486607.7399570792</v>
       </c>
       <c r="B155" t="n">
-        <v>3482723.704862254</v>
+        <v>3482867.820707107</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>486657.918796911</v>
+        <v>486584.0430466576</v>
       </c>
       <c r="B156" t="n">
-        <v>3482726.081213553</v>
+        <v>3482871.622869186</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>486643.1082278976</v>
+        <v>486560.346136236</v>
       </c>
       <c r="B157" t="n">
-        <v>3482728.457564852</v>
+        <v>3482875.425031265</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>486628.2976588841</v>
+        <v>486536.6492258145</v>
       </c>
       <c r="B158" t="n">
-        <v>3482730.833916151</v>
+        <v>3482879.227193343</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>486613.4870898706</v>
+        <v>486512.9523153929</v>
       </c>
       <c r="B159" t="n">
-        <v>3482733.21026745</v>
+        <v>3482883.029355422</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>486598.6765208571</v>
+        <v>486489.2554049714</v>
       </c>
       <c r="B160" t="n">
-        <v>3482735.586618749</v>
+        <v>3482886.831517501</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>486583.8659518436</v>
+        <v>486465.5584945498</v>
       </c>
       <c r="B161" t="n">
-        <v>3482737.962970049</v>
+        <v>3482890.633679579</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>486569.0553828301</v>
+        <v>486441.8615841282</v>
       </c>
       <c r="B162" t="n">
-        <v>3482740.339321348</v>
+        <v>3482894.435841658</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>486554.2448138167</v>
+        <v>486418.1646737067</v>
       </c>
       <c r="B163" t="n">
-        <v>3482742.715672647</v>
+        <v>3482898.238003737</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>486539.4342448032</v>
+        <v>486394.4677632852</v>
       </c>
       <c r="B164" t="n">
-        <v>3482745.092023946</v>
+        <v>3482902.040165816</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>486524.6236757897</v>
+        <v>486370.7708528636</v>
       </c>
       <c r="B165" t="n">
-        <v>3482747.468375246</v>
+        <v>3482905.842327895</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>486509.8131067763</v>
+        <v>486347.073942442</v>
       </c>
       <c r="B166" t="n">
-        <v>3482749.844726545</v>
+        <v>3482909.644489973</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>486495.0025377628</v>
+        <v>486323.3770320205</v>
       </c>
       <c r="B167" t="n">
-        <v>3482752.221077844</v>
+        <v>3482913.446652052</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>486480.1919687493</v>
+        <v>486635.2390295794</v>
       </c>
       <c r="B168" t="n">
-        <v>3482754.597429143</v>
+        <v>3482887.715455451</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>486465.3813997359</v>
+        <v>486611.5421191578</v>
       </c>
       <c r="B169" t="n">
-        <v>3482756.973780442</v>
+        <v>3482891.517617529</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>486450.5708307224</v>
+        <v>486587.8452087363</v>
       </c>
       <c r="B170" t="n">
-        <v>3482759.350131741</v>
+        <v>3482895.319779608</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>486435.7602617089</v>
+        <v>486564.1482983147</v>
       </c>
       <c r="B171" t="n">
-        <v>3482761.72648304</v>
+        <v>3482899.121941687</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>486420.9496926954</v>
+        <v>486540.4513878932</v>
       </c>
       <c r="B172" t="n">
-        <v>3482764.10283434</v>
+        <v>3482902.924103765</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>486406.1391236819</v>
+        <v>486516.7544774716</v>
       </c>
       <c r="B173" t="n">
-        <v>3482766.479185639</v>
+        <v>3482906.726265844</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>486391.3285546685</v>
+        <v>486493.05756705</v>
       </c>
       <c r="B174" t="n">
-        <v>3482768.855536938</v>
+        <v>3482910.528427923</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>486376.517985655</v>
+        <v>486469.3606566285</v>
       </c>
       <c r="B175" t="n">
-        <v>3482771.231888237</v>
+        <v>3482914.330590001</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>486361.7074166415</v>
+        <v>486445.663746207</v>
       </c>
       <c r="B176" t="n">
-        <v>3482773.608239537</v>
+        <v>3482918.13275208</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>486346.8968476281</v>
+        <v>486421.9668357854</v>
       </c>
       <c r="B177" t="n">
-        <v>3482775.984590836</v>
+        <v>3482921.934914159</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>486332.0862786146</v>
+        <v>486398.2699253638</v>
       </c>
       <c r="B178" t="n">
-        <v>3482778.360942135</v>
+        <v>3482925.737076237</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>486317.2757096011</v>
+        <v>486374.5730149423</v>
       </c>
       <c r="B179" t="n">
-        <v>3482780.737293434</v>
+        <v>3482929.539238316</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>486302.4651405877</v>
+        <v>486350.8761045207</v>
       </c>
       <c r="B180" t="n">
-        <v>3482783.113644733</v>
+        <v>3482933.341400395</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>486287.6545715742</v>
+        <v>486327.1791940992</v>
       </c>
       <c r="B181" t="n">
-        <v>3482785.489996032</v>
+        <v>3482937.143562473</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>486808.4008383449</v>
+        <v>486639.0411916581</v>
       </c>
       <c r="B182" t="n">
-        <v>3482717.128269575</v>
+        <v>3482911.412365872</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>486793.5902693315</v>
+        <v>486615.3442812365</v>
       </c>
       <c r="B183" t="n">
-        <v>3482719.504620874</v>
+        <v>3482915.214527951</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>486778.779700318</v>
+        <v>486591.647370815</v>
       </c>
       <c r="B184" t="n">
-        <v>3482721.880972173</v>
+        <v>3482919.016690029</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>486763.9691313045</v>
+        <v>486567.9504603934</v>
       </c>
       <c r="B185" t="n">
-        <v>3482724.257323472</v>
+        <v>3482922.818852108</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>486749.158562291</v>
+        <v>486544.2535499719</v>
       </c>
       <c r="B186" t="n">
-        <v>3482726.633674771</v>
+        <v>3482926.621014187</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>486734.3479932775</v>
+        <v>486520.5566395503</v>
       </c>
       <c r="B187" t="n">
-        <v>3482729.01002607</v>
+        <v>3482930.423176265</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>486719.5374242641</v>
+        <v>486496.8597291288</v>
       </c>
       <c r="B188" t="n">
-        <v>3482731.38637737</v>
+        <v>3482934.225338344</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>486704.7268552506</v>
+        <v>486473.1628187072</v>
       </c>
       <c r="B189" t="n">
-        <v>3482733.762728669</v>
+        <v>3482938.027500423</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>486689.9162862371</v>
+        <v>486449.4659082856</v>
       </c>
       <c r="B190" t="n">
-        <v>3482736.139079968</v>
+        <v>3482941.829662501</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>486675.1057172237</v>
+        <v>486425.7689978641</v>
       </c>
       <c r="B191" t="n">
-        <v>3482738.515431267</v>
+        <v>3482945.63182458</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>486660.2951482102</v>
+        <v>486402.0720874426</v>
       </c>
       <c r="B192" t="n">
-        <v>3482740.891782566</v>
+        <v>3482949.433986659</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>486645.4845791967</v>
+        <v>486378.375177021</v>
       </c>
       <c r="B193" t="n">
-        <v>3482743.268133866</v>
+        <v>3482953.236148737</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>486630.6740101833</v>
+        <v>486354.6782665994</v>
       </c>
       <c r="B194" t="n">
-        <v>3482745.644485165</v>
+        <v>3482957.038310816</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>486615.8634411698</v>
+        <v>486330.9813561779</v>
       </c>
       <c r="B195" t="n">
-        <v>3482748.020836464</v>
+        <v>3482960.840472895</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>486601.0528721563</v>
+        <v>486756.9505696506</v>
       </c>
       <c r="B196" t="n">
-        <v>3482750.397187763</v>
+        <v>3482661.577663356</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>486586.2423031428</v>
+        <v>486733.2536592291</v>
       </c>
       <c r="B197" t="n">
-        <v>3482752.773539062</v>
+        <v>3482665.379825434</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>486571.4317341293</v>
+        <v>486709.5567488075</v>
       </c>
       <c r="B198" t="n">
-        <v>3482755.149890361</v>
+        <v>3482669.181987513</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>486556.6211651159</v>
+        <v>486685.8598383859</v>
       </c>
       <c r="B199" t="n">
-        <v>3482757.526241661</v>
+        <v>3482672.984149592</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>486541.8105961024</v>
+        <v>486662.1629279644</v>
       </c>
       <c r="B200" t="n">
-        <v>3482759.90259296</v>
+        <v>3482676.78631167</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>486527.0000270889</v>
+        <v>486638.4660175429</v>
       </c>
       <c r="B201" t="n">
-        <v>3482762.278944259</v>
+        <v>3482680.588473749</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>486512.1894580754</v>
+        <v>486614.7691071213</v>
       </c>
       <c r="B202" t="n">
-        <v>3482764.655295558</v>
+        <v>3482684.390635828</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>486497.378889062</v>
+        <v>486591.0721966997</v>
       </c>
       <c r="B203" t="n">
-        <v>3482767.031646858</v>
+        <v>3482688.192797907</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>486482.5683200485</v>
+        <v>486567.3752862782</v>
       </c>
       <c r="B204" t="n">
-        <v>3482769.407998157</v>
+        <v>3482691.994959985</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>486467.757751035</v>
+        <v>486543.6783758566</v>
       </c>
       <c r="B205" t="n">
-        <v>3482771.784349455</v>
+        <v>3482695.797122064</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>486452.9471820216</v>
+        <v>486784.4496421509</v>
       </c>
       <c r="B206" t="n">
-        <v>3482774.160700755</v>
+        <v>3482681.472411699</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>486438.1366130081</v>
+        <v>486760.7527317293</v>
       </c>
       <c r="B207" t="n">
-        <v>3482776.537052054</v>
+        <v>3482685.274573777</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>486423.3260439946</v>
+        <v>486737.0558213078</v>
       </c>
       <c r="B208" t="n">
-        <v>3482778.913403353</v>
+        <v>3482689.076735856</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>486408.5154749812</v>
+        <v>486713.3589108862</v>
       </c>
       <c r="B209" t="n">
-        <v>3482781.289754652</v>
+        <v>3482692.878897934</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>486393.7049059677</v>
+        <v>486689.6620004646</v>
       </c>
       <c r="B210" t="n">
-        <v>3482783.666105952</v>
+        <v>3482696.681060013</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>486378.8943369542</v>
+        <v>486665.9650900431</v>
       </c>
       <c r="B211" t="n">
-        <v>3482786.042457251</v>
+        <v>3482700.483222092</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>486364.0837679407</v>
+        <v>486642.2681796215</v>
       </c>
       <c r="B212" t="n">
-        <v>3482788.41880855</v>
+        <v>3482704.285384171</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>486349.2731989272</v>
+        <v>486618.5712692</v>
       </c>
       <c r="B213" t="n">
-        <v>3482790.795159849</v>
+        <v>3482708.087546249</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>486334.4626299138</v>
+        <v>486594.8743587784</v>
       </c>
       <c r="B214" t="n">
-        <v>3482793.171511149</v>
+        <v>3482711.889708328</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>486319.6520609003</v>
+        <v>486571.1774483569</v>
       </c>
       <c r="B215" t="n">
-        <v>3482795.547862448</v>
+        <v>3482715.691870407</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>486304.8414918868</v>
+        <v>486547.4805379353</v>
       </c>
       <c r="B216" t="n">
-        <v>3482797.924213747</v>
+        <v>3482719.494032485</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>486290.0309228734</v>
+        <v>486693.4641625434</v>
       </c>
       <c r="B217" t="n">
-        <v>3482800.300565046</v>
+        <v>3482720.377970435</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>486810.7771896441</v>
+        <v>486669.7672521218</v>
       </c>
       <c r="B218" t="n">
-        <v>3482731.938838588</v>
+        <v>3482724.180132513</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>486795.9666206306</v>
+        <v>486646.0703417002</v>
       </c>
       <c r="B219" t="n">
-        <v>3482734.315189887</v>
+        <v>3482727.982294592</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>486781.1560516172</v>
+        <v>486622.3734312787</v>
       </c>
       <c r="B220" t="n">
-        <v>3482736.691541187</v>
+        <v>3482731.784456671</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>486766.3454826037</v>
+        <v>486598.6765208571</v>
       </c>
       <c r="B221" t="n">
-        <v>3482739.067892485</v>
+        <v>3482735.586618749</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>486751.5349135902</v>
+        <v>486574.9796104355</v>
       </c>
       <c r="B222" t="n">
-        <v>3482741.444243785</v>
+        <v>3482739.388780828</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>486736.7243445768</v>
+        <v>486551.282700014</v>
       </c>
       <c r="B223" t="n">
-        <v>3482743.820595084</v>
+        <v>3482743.190942907</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>486721.9137755633</v>
+        <v>486697.266324622</v>
       </c>
       <c r="B224" t="n">
-        <v>3482746.196946383</v>
+        <v>3482744.074880856</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>486707.1032065498</v>
+        <v>486673.5694142005</v>
       </c>
       <c r="B225" t="n">
-        <v>3482748.573297682</v>
+        <v>3482747.877042935</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>486692.2926375363</v>
+        <v>486649.8725037789</v>
       </c>
       <c r="B226" t="n">
-        <v>3482750.949648981</v>
+        <v>3482751.679205013</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>486677.4820685228</v>
+        <v>486626.1755933574</v>
       </c>
       <c r="B227" t="n">
-        <v>3482753.326000281</v>
+        <v>3482755.481367093</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>486662.6714995094</v>
+        <v>486602.4786829358</v>
       </c>
       <c r="B228" t="n">
-        <v>3482755.70235158</v>
+        <v>3482759.283529171</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>486647.8609304959</v>
+        <v>486578.7817725142</v>
       </c>
       <c r="B229" t="n">
-        <v>3482758.078702879</v>
+        <v>3482763.08569125</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>486633.0503614824</v>
+        <v>486555.0848620927</v>
       </c>
       <c r="B230" t="n">
-        <v>3482760.455054178</v>
+        <v>3482766.887853328</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>486618.239792469</v>
+        <v>486701.0684867008</v>
       </c>
       <c r="B231" t="n">
-        <v>3482762.831405477</v>
+        <v>3482767.771791278</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>486603.4292234555</v>
+        <v>486677.3715762792</v>
       </c>
       <c r="B232" t="n">
-        <v>3482765.207756776</v>
+        <v>3482771.573953357</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>486588.618654442</v>
+        <v>486653.6746658576</v>
       </c>
       <c r="B233" t="n">
-        <v>3482767.584108076</v>
+        <v>3482775.376115435</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>486573.8080854286</v>
+        <v>486629.9777554361</v>
       </c>
       <c r="B234" t="n">
-        <v>3482769.960459375</v>
+        <v>3482779.178277514</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>486558.9975164151</v>
+        <v>486606.2808450145</v>
       </c>
       <c r="B235" t="n">
-        <v>3482772.336810674</v>
+        <v>3482782.980439593</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>486544.1869474016</v>
+        <v>486582.583934593</v>
       </c>
       <c r="B236" t="n">
-        <v>3482774.713161973</v>
+        <v>3482786.782601671</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>486529.3763783881</v>
+        <v>486558.8870241714</v>
       </c>
       <c r="B237" t="n">
-        <v>3482777.089513273</v>
+        <v>3482790.58476375</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>486514.5658093746</v>
+        <v>486519.981465435</v>
       </c>
       <c r="B238" t="n">
-        <v>3482779.465864572</v>
+        <v>3482699.599284143</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>486499.7552403611</v>
+        <v>486523.7836275137</v>
       </c>
       <c r="B239" t="n">
-        <v>3482781.842215871</v>
+        <v>3482723.296194565</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>486484.9446713477</v>
+        <v>486527.5857895925</v>
       </c>
       <c r="B240" t="n">
-        <v>3482784.21856717</v>
+        <v>3482746.993104986</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>486470.1341023342</v>
+        <v>486531.3879516711</v>
       </c>
       <c r="B241" t="n">
-        <v>3482786.594918469</v>
+        <v>3482770.690015407</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>486455.3235333207</v>
+        <v>486535.1901137498</v>
       </c>
       <c r="B242" t="n">
-        <v>3482788.971269768</v>
+        <v>3482794.386925829</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>486440.5129643073</v>
+        <v>486496.2845550135</v>
       </c>
       <c r="B243" t="n">
-        <v>3482791.347621067</v>
+        <v>3482703.401446221</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>486425.7023952938</v>
+        <v>486500.0867170922</v>
       </c>
       <c r="B244" t="n">
-        <v>3482793.723972367</v>
+        <v>3482727.098356643</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>486410.8918262803</v>
+        <v>486503.8888791709</v>
       </c>
       <c r="B245" t="n">
-        <v>3482796.100323666</v>
+        <v>3482750.795267064</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>486396.0812572669</v>
+        <v>486507.6910412495</v>
       </c>
       <c r="B246" t="n">
-        <v>3482798.476674965</v>
+        <v>3482774.492177486</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>486381.2706882534</v>
+        <v>486511.4932033282</v>
       </c>
       <c r="B247" t="n">
-        <v>3482800.853026264</v>
+        <v>3482798.189087908</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>486366.4601192399</v>
+        <v>486472.5876445919</v>
       </c>
       <c r="B248" t="n">
-        <v>3482803.229377564</v>
+        <v>3482707.2036083</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>486351.6495502265</v>
+        <v>486476.3898066706</v>
       </c>
       <c r="B249" t="n">
-        <v>3482805.605728863</v>
+        <v>3482730.900518722</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>486336.8389812129</v>
+        <v>486480.1919687493</v>
       </c>
       <c r="B250" t="n">
-        <v>3482807.982080162</v>
+        <v>3482754.597429143</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>486322.0284121995</v>
+        <v>486483.994130828</v>
       </c>
       <c r="B251" t="n">
-        <v>3482810.358431461</v>
+        <v>3482778.294339565</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>486307.217843186</v>
+        <v>486487.7962929067</v>
       </c>
       <c r="B252" t="n">
-        <v>3482812.73478276</v>
+        <v>3482801.991249986</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>486292.4072741725</v>
+        <v>486448.8907341703</v>
       </c>
       <c r="B253" t="n">
-        <v>3482815.111134059</v>
+        <v>3482711.005770379</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>486813.1535409433</v>
+        <v>486452.6928962491</v>
       </c>
       <c r="B254" t="n">
-        <v>3482746.749407602</v>
+        <v>3482734.7026808</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>486798.3429719298</v>
+        <v>486456.4950583278</v>
       </c>
       <c r="B255" t="n">
-        <v>3482749.125758901</v>
+        <v>3482758.399591221</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>486783.5324029163</v>
+        <v>486460.2972204065</v>
       </c>
       <c r="B256" t="n">
-        <v>3482751.5021102</v>
+        <v>3482782.096501643</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>486768.7218339029</v>
+        <v>486464.0993824851</v>
       </c>
       <c r="B257" t="n">
-        <v>3482753.878461499</v>
+        <v>3482805.793412065</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>486753.9112648894</v>
+        <v>486425.1938237489</v>
       </c>
       <c r="B258" t="n">
-        <v>3482756.254812798</v>
+        <v>3482714.807932457</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>486739.1006958759</v>
+        <v>486428.9959858275</v>
       </c>
       <c r="B259" t="n">
-        <v>3482758.631164097</v>
+        <v>3482738.504842879</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>486724.2901268625</v>
+        <v>486432.7981479062</v>
       </c>
       <c r="B260" t="n">
-        <v>3482761.007515396</v>
+        <v>3482762.201753301</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>486709.479557849</v>
+        <v>486436.6003099849</v>
       </c>
       <c r="B261" t="n">
-        <v>3482763.383866696</v>
+        <v>3482785.898663722</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>486694.6689888355</v>
+        <v>486440.4024720636</v>
       </c>
       <c r="B262" t="n">
-        <v>3482765.760217995</v>
+        <v>3482809.595574143</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>486679.858419822</v>
+        <v>486401.4969133273</v>
       </c>
       <c r="B263" t="n">
-        <v>3482768.136569294</v>
+        <v>3482718.610094536</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>486665.0478508085</v>
+        <v>486405.2990754059</v>
       </c>
       <c r="B264" t="n">
-        <v>3482770.512920593</v>
+        <v>3482742.307004957</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>486650.2372817951</v>
+        <v>486409.1012374847</v>
       </c>
       <c r="B265" t="n">
-        <v>3482772.889271893</v>
+        <v>3482766.003915379</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>486635.4267127816</v>
+        <v>486412.9033995633</v>
       </c>
       <c r="B266" t="n">
-        <v>3482775.265623192</v>
+        <v>3482789.700825801</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>486620.6161437681</v>
+        <v>486416.7055616421</v>
       </c>
       <c r="B267" t="n">
-        <v>3482777.641974491</v>
+        <v>3482813.397736222</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>486605.8055747547</v>
+        <v>486377.8000029057</v>
       </c>
       <c r="B268" t="n">
-        <v>3482780.01832579</v>
+        <v>3482722.412256615</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>486590.9950057412</v>
+        <v>486381.6021649844</v>
       </c>
       <c r="B269" t="n">
-        <v>3482782.394677089</v>
+        <v>3482746.109167037</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>486576.1844367277</v>
+        <v>486385.4043270631</v>
       </c>
       <c r="B270" t="n">
-        <v>3482784.771028388</v>
+        <v>3482769.806077458</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>486561.3738677143</v>
+        <v>486389.2064891418</v>
       </c>
       <c r="B271" t="n">
-        <v>3482787.147379688</v>
+        <v>3482793.502987879</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>486546.5632987008</v>
+        <v>486393.0086512205</v>
       </c>
       <c r="B272" t="n">
-        <v>3482789.523730987</v>
+        <v>3482817.199898301</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>486531.7527296873</v>
+        <v>486354.1030924842</v>
       </c>
       <c r="B273" t="n">
-        <v>3482791.900082286</v>
+        <v>3482726.214418693</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>486516.9421606738</v>
+        <v>486357.9052545629</v>
       </c>
       <c r="B274" t="n">
-        <v>3482794.276433585</v>
+        <v>3482749.911329115</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>486502.1315916604</v>
+        <v>486361.7074166415</v>
       </c>
       <c r="B275" t="n">
-        <v>3482796.652784884</v>
+        <v>3482773.608239536</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>486487.3210226469</v>
+        <v>486365.5095787202</v>
       </c>
       <c r="B276" t="n">
-        <v>3482799.029136184</v>
+        <v>3482797.305149958</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>486472.5104536334</v>
+        <v>486369.3117407989</v>
       </c>
       <c r="B277" t="n">
-        <v>3482801.405487483</v>
+        <v>3482821.00206038</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>486457.6998846199</v>
+        <v>486330.4061820626</v>
       </c>
       <c r="B278" t="n">
-        <v>3482803.781838782</v>
+        <v>3482730.016580772</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>486442.8893156064</v>
+        <v>486334.2083441413</v>
       </c>
       <c r="B279" t="n">
-        <v>3482806.158190081</v>
+        <v>3482753.713491194</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>486428.078746593</v>
+        <v>486338.01050622</v>
       </c>
       <c r="B280" t="n">
-        <v>3482808.53454138</v>
+        <v>3482777.410401615</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>486413.2681775795</v>
+        <v>486341.8126682987</v>
       </c>
       <c r="B281" t="n">
-        <v>3482810.910892679</v>
+        <v>3482801.107312037</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>486398.457608566</v>
+        <v>486345.6148303774</v>
       </c>
       <c r="B282" t="n">
-        <v>3482813.287243979</v>
+        <v>3482824.804222458</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>486383.6470395526</v>
+        <v>486310.5114337197</v>
       </c>
       <c r="B283" t="n">
-        <v>3482815.663595278</v>
+        <v>3482757.515653272</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>486368.8364705391</v>
+        <v>486314.3135957984</v>
       </c>
       <c r="B284" t="n">
-        <v>3482818.039946577</v>
+        <v>3482781.212563694</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>486354.0259015256</v>
+        <v>486318.1157578771</v>
       </c>
       <c r="B285" t="n">
-        <v>3482820.416297876</v>
+        <v>3482804.909474115</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>486339.2153325122</v>
+        <v>486321.9179199558</v>
       </c>
       <c r="B286" t="n">
-        <v>3482822.792649176</v>
+        <v>3482828.606384537</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>486324.4047634987</v>
+        <v>486788.2518042296</v>
       </c>
       <c r="B287" t="n">
-        <v>3482825.169000475</v>
+        <v>3482705.16932212</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>486309.5941944852</v>
+        <v>486764.554893808</v>
       </c>
       <c r="B288" t="n">
-        <v>3482827.545351774</v>
+        <v>3482708.971484199</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>486294.7836254717</v>
+        <v>486740.8579833865</v>
       </c>
       <c r="B289" t="n">
-        <v>3482829.921703073</v>
+        <v>3482712.773646277</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>486608.1819260538</v>
+        <v>486717.1610729649</v>
       </c>
       <c r="B290" t="n">
-        <v>3482794.828894803</v>
+        <v>3482716.575808356</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>486593.3713570404</v>
+        <v>486610.0830070932</v>
       </c>
       <c r="B291" t="n">
-        <v>3482797.205246103</v>
+        <v>3482806.677350014</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>486578.5607880269</v>
+        <v>486586.3860966716</v>
       </c>
       <c r="B292" t="n">
-        <v>3482799.581597402</v>
+        <v>3482810.479512093</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>486563.7502190134</v>
+        <v>486562.6891862501</v>
       </c>
       <c r="B293" t="n">
-        <v>3482801.957948701</v>
+        <v>3482814.281674172</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>486548.93965</v>
+        <v>486538.9922758286</v>
       </c>
       <c r="B294" t="n">
-        <v>3482804.3343</v>
+        <v>3482818.08383625</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>486534.1290809865</v>
+        <v>486515.295365407</v>
       </c>
       <c r="B295" t="n">
-        <v>3482806.710651299</v>
+        <v>3482821.885998329</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>486519.318511973</v>
+        <v>486491.5984549854</v>
       </c>
       <c r="B296" t="n">
-        <v>3482809.087002599</v>
+        <v>3482825.688160408</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>486504.5079429595</v>
+        <v>486467.9015445639</v>
       </c>
       <c r="B297" t="n">
-        <v>3482811.463353898</v>
+        <v>3482829.490322486</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>486489.6973739461</v>
+        <v>486444.2046341423</v>
       </c>
       <c r="B298" t="n">
-        <v>3482813.839705197</v>
+        <v>3482833.292484565</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>486474.8868049326</v>
+        <v>486420.5077237207</v>
       </c>
       <c r="B299" t="n">
-        <v>3482816.216056496</v>
+        <v>3482837.094646644</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>486460.0762359191</v>
+        <v>486396.8108132992</v>
       </c>
       <c r="B300" t="n">
-        <v>3482818.592407795</v>
+        <v>3482840.896808723</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>486445.2656669056</v>
+        <v>486373.1139028777</v>
       </c>
       <c r="B301" t="n">
-        <v>3482820.968759094</v>
+        <v>3482844.698970801</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>486430.4550978921</v>
+        <v>486349.4169924561</v>
       </c>
       <c r="B302" t="n">
-        <v>3482823.345110394</v>
+        <v>3482848.50113288</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>486415.6445288787</v>
+        <v>486325.7200820345</v>
       </c>
       <c r="B303" t="n">
-        <v>3482825.721461693</v>
+        <v>3482852.303294959</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>486400.8339598652</v>
+        <v>486768.3570558867</v>
       </c>
       <c r="B304" t="n">
-        <v>3482828.097812992</v>
+        <v>3482732.668394621</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>486386.0233908517</v>
+        <v>486744.6601454652</v>
       </c>
       <c r="B305" t="n">
-        <v>3482830.474164291</v>
+        <v>3482736.470556699</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>486371.2128218383</v>
+        <v>486720.9632350436</v>
       </c>
       <c r="B306" t="n">
-        <v>3482832.850515591</v>
+        <v>3482740.272718778</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>486356.4022528248</v>
+        <v>486613.8851691719</v>
       </c>
       <c r="B307" t="n">
-        <v>3482835.22686689</v>
+        <v>3482830.374260436</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>486341.5916838113</v>
+        <v>486590.1882587504</v>
       </c>
       <c r="B308" t="n">
-        <v>3482837.603218189</v>
+        <v>3482834.176422514</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>486326.7811147979</v>
+        <v>486566.4913483288</v>
       </c>
       <c r="B309" t="n">
-        <v>3482839.979569488</v>
+        <v>3482837.978584593</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>486311.9705457844</v>
+        <v>486542.7944379072</v>
       </c>
       <c r="B310" t="n">
-        <v>3482842.355920787</v>
+        <v>3482841.780746672</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>486297.1599767709</v>
+        <v>486519.0975274857</v>
       </c>
       <c r="B311" t="n">
-        <v>3482844.732272086</v>
+        <v>3482845.582908751</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>486610.5582773531</v>
+        <v>486495.4006170641</v>
       </c>
       <c r="B312" t="n">
-        <v>3482809.639463817</v>
+        <v>3482849.38507083</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>486595.7477083395</v>
+        <v>486471.7037066426</v>
       </c>
       <c r="B313" t="n">
-        <v>3482812.015815116</v>
+        <v>3482853.187232908</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>486580.9371393261</v>
+        <v>486448.006796221</v>
       </c>
       <c r="B314" t="n">
-        <v>3482814.392166415</v>
+        <v>3482856.989394987</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>486566.1265703126</v>
+        <v>486424.3098857994</v>
       </c>
       <c r="B315" t="n">
-        <v>3482816.768517714</v>
+        <v>3482860.791557065</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>486551.3160012991</v>
+        <v>486400.6129753779</v>
       </c>
       <c r="B316" t="n">
-        <v>3482819.144869014</v>
+        <v>3482864.593719144</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>486536.5054322857</v>
+        <v>486376.9160649563</v>
       </c>
       <c r="B317" t="n">
-        <v>3482821.521220313</v>
+        <v>3482868.395881223</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>486521.6948632722</v>
+        <v>486353.2191545347</v>
       </c>
       <c r="B318" t="n">
-        <v>3482823.897571612</v>
+        <v>3482872.198043302</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>486506.8842942587</v>
+        <v>486329.5222441132</v>
       </c>
       <c r="B319" t="n">
-        <v>3482826.273922911</v>
+        <v>3482876.00020538</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>486492.0737252453</v>
+        <v>486617.6873312506</v>
       </c>
       <c r="B320" t="n">
-        <v>3482828.650274211</v>
+        <v>3482854.071170857</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>486477.2631562318</v>
+        <v>486593.990420829</v>
       </c>
       <c r="B321" t="n">
-        <v>3482831.02662551</v>
+        <v>3482857.873332936</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>486462.4525872183</v>
+        <v>486570.2935104074</v>
       </c>
       <c r="B322" t="n">
-        <v>3482833.402976809</v>
+        <v>3482861.675495015</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>486447.6420182048</v>
+        <v>486546.5965999859</v>
       </c>
       <c r="B323" t="n">
-        <v>3482835.779328108</v>
+        <v>3482865.477657094</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>486432.8314491914</v>
+        <v>486522.8996895644</v>
       </c>
       <c r="B324" t="n">
-        <v>3482838.155679407</v>
+        <v>3482869.279819172</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>486418.0208801779</v>
+        <v>486499.2027791428</v>
       </c>
       <c r="B325" t="n">
-        <v>3482840.532030706</v>
+        <v>3482873.081981251</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>486403.2103111644</v>
+        <v>486475.5058687213</v>
       </c>
       <c r="B326" t="n">
-        <v>3482842.908382006</v>
+        <v>3482876.88414333</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>486388.3997421509</v>
+        <v>486451.8089582997</v>
       </c>
       <c r="B327" t="n">
-        <v>3482845.284733305</v>
+        <v>3482880.686305408</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>486373.5891731374</v>
+        <v>486428.1120478782</v>
       </c>
       <c r="B328" t="n">
-        <v>3482847.661084604</v>
+        <v>3482884.488467487</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>486358.778604124</v>
+        <v>486404.4151374566</v>
       </c>
       <c r="B329" t="n">
-        <v>3482850.037435903</v>
+        <v>3482888.290629566</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>486343.9680351105</v>
+        <v>486380.718227035</v>
       </c>
       <c r="B330" t="n">
-        <v>3482852.413787202</v>
+        <v>3482892.092791644</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>486329.157466097</v>
+        <v>486357.0213166135</v>
       </c>
       <c r="B331" t="n">
-        <v>3482854.790138502</v>
+        <v>3482895.894953723</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>486314.3468970836</v>
+        <v>486333.3244061919</v>
       </c>
       <c r="B332" t="n">
-        <v>3482857.1664898</v>
+        <v>3482899.697115802</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>486299.5363280701</v>
+        <v>486621.4894933293</v>
       </c>
       <c r="B333" t="n">
-        <v>3482859.5428411</v>
+        <v>3482877.768081279</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>486612.9346286522</v>
+        <v>486597.7925829077</v>
       </c>
       <c r="B334" t="n">
-        <v>3482824.45003283</v>
+        <v>3482881.570243358</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>486598.1240596388</v>
+        <v>486574.0956724862</v>
       </c>
       <c r="B335" t="n">
-        <v>3482826.826384129</v>
+        <v>3482885.372405436</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>486583.3134906253</v>
+        <v>486550.3987620646</v>
       </c>
       <c r="B336" t="n">
-        <v>3482829.202735429</v>
+        <v>3482889.174567515</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>486568.5029216118</v>
+        <v>486526.701851643</v>
       </c>
       <c r="B337" t="n">
-        <v>3482831.579086728</v>
+        <v>3482892.976729594</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>486553.6923525983</v>
+        <v>486503.0049412215</v>
       </c>
       <c r="B338" t="n">
-        <v>3482833.955438027</v>
+        <v>3482896.778891672</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>486538.8817835848</v>
+        <v>486479.3080308</v>
       </c>
       <c r="B339" t="n">
-        <v>3482836.331789326</v>
+        <v>3482900.581053752</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>486524.0712145714</v>
+        <v>486455.6111203784</v>
       </c>
       <c r="B340" t="n">
-        <v>3482838.708140626</v>
+        <v>3482904.38321583</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>486509.2606455579</v>
+        <v>486431.9142099568</v>
       </c>
       <c r="B341" t="n">
-        <v>3482841.084491925</v>
+        <v>3482908.185377909</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>486494.4500765444</v>
+        <v>486408.2172995353</v>
       </c>
       <c r="B342" t="n">
-        <v>3482843.460843224</v>
+        <v>3482911.987539987</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>486479.639507531</v>
+        <v>486384.5203891137</v>
       </c>
       <c r="B343" t="n">
-        <v>3482845.837194523</v>
+        <v>3482915.789702066</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>486464.8289385175</v>
+        <v>486360.8234786922</v>
       </c>
       <c r="B344" t="n">
-        <v>3482848.213545822</v>
+        <v>3482919.591864144</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>486450.018369504</v>
+        <v>486337.1265682706</v>
       </c>
       <c r="B345" t="n">
-        <v>3482850.589897121</v>
+        <v>3482923.394026224</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>486435.2078004905</v>
+        <v>486601.5947449864</v>
       </c>
       <c r="B346" t="n">
-        <v>3482852.966248421</v>
+        <v>3482905.267153779</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>486420.3972314771</v>
+        <v>486577.8978345649</v>
       </c>
       <c r="B347" t="n">
-        <v>3482855.34259972</v>
+        <v>3482909.069315858</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>486405.5866624636</v>
+        <v>486554.2009241433</v>
       </c>
       <c r="B348" t="n">
-        <v>3482857.718951019</v>
+        <v>3482912.871477936</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>486390.7760934501</v>
+        <v>486530.5040137217</v>
       </c>
       <c r="B349" t="n">
-        <v>3482860.095302318</v>
+        <v>3482916.673640016</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>486375.9655244366</v>
+        <v>486506.8071033002</v>
       </c>
       <c r="B350" t="n">
-        <v>3482862.471653617</v>
+        <v>3482920.475802094</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>486361.1549554231</v>
+        <v>486483.1101928786</v>
       </c>
       <c r="B351" t="n">
-        <v>3482864.848004917</v>
+        <v>3482924.277964173</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>486346.3443864097</v>
+        <v>486459.4132824571</v>
       </c>
       <c r="B352" t="n">
-        <v>3482867.224356216</v>
+        <v>3482928.080126252</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>486331.5338173962</v>
+        <v>486435.7163720356</v>
       </c>
       <c r="B353" t="n">
-        <v>3482869.600707515</v>
+        <v>3482931.88228833</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>486316.7232483827</v>
+        <v>486412.019461614</v>
       </c>
       <c r="B354" t="n">
-        <v>3482871.977058814</v>
+        <v>3482935.684450409</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>486301.9126793693</v>
+        <v>486388.3225511924</v>
       </c>
       <c r="B355" t="n">
-        <v>3482874.353410113</v>
+        <v>3482939.486612488</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>486615.3109799514</v>
+        <v>486364.6256407709</v>
       </c>
       <c r="B356" t="n">
-        <v>3482839.260601844</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="n">
-        <v>486600.5004109379</v>
-      </c>
-      <c r="B357" t="n">
-        <v>3482841.636953143</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="n">
-        <v>486585.6898419245</v>
-      </c>
-      <c r="B358" t="n">
-        <v>3482844.013304442</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="n">
-        <v>486570.879272911</v>
-      </c>
-      <c r="B359" t="n">
-        <v>3482846.389655741</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="n">
-        <v>486556.0687038975</v>
-      </c>
-      <c r="B360" t="n">
-        <v>3482848.766007041</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="n">
-        <v>486541.2581348841</v>
-      </c>
-      <c r="B361" t="n">
-        <v>3482851.14235834</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="n">
-        <v>486526.4475658706</v>
-      </c>
-      <c r="B362" t="n">
-        <v>3482853.518709639</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="n">
-        <v>486511.6369968571</v>
-      </c>
-      <c r="B363" t="n">
-        <v>3482855.895060938</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="n">
-        <v>486496.8264278436</v>
-      </c>
-      <c r="B364" t="n">
-        <v>3482858.271412238</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="n">
-        <v>486482.0158588301</v>
-      </c>
-      <c r="B365" t="n">
-        <v>3482860.647763537</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="n">
-        <v>486467.2052898167</v>
-      </c>
-      <c r="B366" t="n">
-        <v>3482863.024114836</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="n">
-        <v>486452.3947208032</v>
-      </c>
-      <c r="B367" t="n">
-        <v>3482865.400466135</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="n">
-        <v>486437.5841517897</v>
-      </c>
-      <c r="B368" t="n">
-        <v>3482867.776817434</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="n">
-        <v>486422.7735827763</v>
-      </c>
-      <c r="B369" t="n">
-        <v>3482870.153168733</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="n">
-        <v>486407.9630137628</v>
-      </c>
-      <c r="B370" t="n">
-        <v>3482872.529520032</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="n">
-        <v>486393.1524447493</v>
-      </c>
-      <c r="B371" t="n">
-        <v>3482874.905871332</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="n">
-        <v>486378.3418757358</v>
-      </c>
-      <c r="B372" t="n">
-        <v>3482877.282222631</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="n">
-        <v>486363.5313067224</v>
-      </c>
-      <c r="B373" t="n">
-        <v>3482879.65857393</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="n">
-        <v>486348.7207377089</v>
-      </c>
-      <c r="B374" t="n">
-        <v>3482882.034925229</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="n">
-        <v>486333.9101686954</v>
-      </c>
-      <c r="B375" t="n">
-        <v>3482884.411276529</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="n">
-        <v>486319.0995996819</v>
-      </c>
-      <c r="B376" t="n">
-        <v>3482886.787627827</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="n">
-        <v>486304.2890306684</v>
-      </c>
-      <c r="B377" t="n">
-        <v>3482889.163979127</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="n">
-        <v>486617.6873312506</v>
-      </c>
-      <c r="B378" t="n">
-        <v>3482854.071170857</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="n">
-        <v>486602.8767622371</v>
-      </c>
-      <c r="B379" t="n">
-        <v>3482856.447522156</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="n">
-        <v>486588.0661932236</v>
-      </c>
-      <c r="B380" t="n">
-        <v>3482858.823873456</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="n">
-        <v>486573.2556242102</v>
-      </c>
-      <c r="B381" t="n">
-        <v>3482861.200224755</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="n">
-        <v>486558.4450551967</v>
-      </c>
-      <c r="B382" t="n">
-        <v>3482863.576576054</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="n">
-        <v>486543.6344861832</v>
-      </c>
-      <c r="B383" t="n">
-        <v>3482865.952927353</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="n">
-        <v>486528.8239171698</v>
-      </c>
-      <c r="B384" t="n">
-        <v>3482868.329278653</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="n">
-        <v>486514.0133481563</v>
-      </c>
-      <c r="B385" t="n">
-        <v>3482870.705629952</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="n">
-        <v>486499.2027791428</v>
-      </c>
-      <c r="B386" t="n">
-        <v>3482873.081981251</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="n">
-        <v>486484.3922101294</v>
-      </c>
-      <c r="B387" t="n">
-        <v>3482875.45833255</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="n">
-        <v>486469.5816411158</v>
-      </c>
-      <c r="B388" t="n">
-        <v>3482877.834683849</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="n">
-        <v>486454.7710721024</v>
-      </c>
-      <c r="B389" t="n">
-        <v>3482880.211035148</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="n">
-        <v>486439.9605030889</v>
-      </c>
-      <c r="B390" t="n">
-        <v>3482882.587386447</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="n">
-        <v>486425.1499340754</v>
-      </c>
-      <c r="B391" t="n">
-        <v>3482884.963737747</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="n">
-        <v>486410.339365062</v>
-      </c>
-      <c r="B392" t="n">
-        <v>3482887.340089046</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="n">
-        <v>486395.5287960485</v>
-      </c>
-      <c r="B393" t="n">
-        <v>3482889.716440345</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="n">
-        <v>486380.718227035</v>
-      </c>
-      <c r="B394" t="n">
-        <v>3482892.092791644</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="n">
-        <v>486365.9076580215</v>
-      </c>
-      <c r="B395" t="n">
-        <v>3482894.469142944</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="n">
-        <v>486351.0970890081</v>
-      </c>
-      <c r="B396" t="n">
-        <v>3482896.845494243</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="n">
-        <v>486336.2865199946</v>
-      </c>
-      <c r="B397" t="n">
-        <v>3482899.221845542</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="n">
-        <v>486321.4759509811</v>
-      </c>
-      <c r="B398" t="n">
-        <v>3482901.598196841</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="n">
-        <v>486306.6653819677</v>
-      </c>
-      <c r="B399" t="n">
-        <v>3482903.97454814</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="n">
-        <v>486620.0636825497</v>
-      </c>
-      <c r="B400" t="n">
-        <v>3482868.881739871</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="n">
-        <v>486605.2531135363</v>
-      </c>
-      <c r="B401" t="n">
-        <v>3482871.25809117</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="n">
-        <v>486590.4425445228</v>
-      </c>
-      <c r="B402" t="n">
-        <v>3482873.634442469</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="n">
-        <v>486575.6319755093</v>
-      </c>
-      <c r="B403" t="n">
-        <v>3482876.010793768</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="n">
-        <v>486560.8214064959</v>
-      </c>
-      <c r="B404" t="n">
-        <v>3482878.387145068</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="n">
-        <v>486546.0108374824</v>
-      </c>
-      <c r="B405" t="n">
-        <v>3482880.763496367</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="n">
-        <v>486531.2002684689</v>
-      </c>
-      <c r="B406" t="n">
-        <v>3482883.139847666</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="n">
-        <v>486516.3896994555</v>
-      </c>
-      <c r="B407" t="n">
-        <v>3482885.516198965</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="n">
-        <v>486501.579130442</v>
-      </c>
-      <c r="B408" t="n">
-        <v>3482887.892550264</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="n">
-        <v>486486.7685614285</v>
-      </c>
-      <c r="B409" t="n">
-        <v>3482890.268901564</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="n">
-        <v>486471.9579924151</v>
-      </c>
-      <c r="B410" t="n">
-        <v>3482892.645252862</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="n">
-        <v>486457.1474234016</v>
-      </c>
-      <c r="B411" t="n">
-        <v>3482895.021604162</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="n">
-        <v>486442.3368543881</v>
-      </c>
-      <c r="B412" t="n">
-        <v>3482897.397955461</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="n">
-        <v>486427.5262853746</v>
-      </c>
-      <c r="B413" t="n">
-        <v>3482899.77430676</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="n">
-        <v>486412.7157163611</v>
-      </c>
-      <c r="B414" t="n">
-        <v>3482902.150658059</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="n">
-        <v>486397.9051473477</v>
-      </c>
-      <c r="B415" t="n">
-        <v>3482904.527009359</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="n">
-        <v>486383.0945783342</v>
-      </c>
-      <c r="B416" t="n">
-        <v>3482906.903360658</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" t="n">
-        <v>486368.2840093207</v>
-      </c>
-      <c r="B417" t="n">
-        <v>3482909.279711957</v>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="n">
-        <v>486353.4734403073</v>
-      </c>
-      <c r="B418" t="n">
-        <v>3482911.656063256</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="n">
-        <v>486338.6628712938</v>
-      </c>
-      <c r="B419" t="n">
-        <v>3482914.032414556</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="n">
-        <v>486323.8523022803</v>
-      </c>
-      <c r="B420" t="n">
-        <v>3482916.408765854</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="n">
-        <v>486309.0417332668</v>
-      </c>
-      <c r="B421" t="n">
-        <v>3482918.785117154</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="n">
-        <v>486622.440033849</v>
-      </c>
-      <c r="B422" t="n">
-        <v>3482883.692308884</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="n">
-        <v>486607.6294648355</v>
-      </c>
-      <c r="B423" t="n">
-        <v>3482886.068660183</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="n">
-        <v>486592.818895822</v>
-      </c>
-      <c r="B424" t="n">
-        <v>3482888.445011483</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="n">
-        <v>486578.0083268085</v>
-      </c>
-      <c r="B425" t="n">
-        <v>3482890.821362782</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" t="n">
-        <v>486563.197757795</v>
-      </c>
-      <c r="B426" t="n">
-        <v>3482893.197714081</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" t="n">
-        <v>486548.3871887816</v>
-      </c>
-      <c r="B427" t="n">
-        <v>3482895.57406538</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" t="n">
-        <v>486533.5766197681</v>
-      </c>
-      <c r="B428" t="n">
-        <v>3482897.950416679</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" t="n">
-        <v>486518.7660507546</v>
-      </c>
-      <c r="B429" t="n">
-        <v>3482900.326767979</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" t="n">
-        <v>486503.9554817412</v>
-      </c>
-      <c r="B430" t="n">
-        <v>3482902.703119278</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" t="n">
-        <v>486489.1449127277</v>
-      </c>
-      <c r="B431" t="n">
-        <v>3482905.079470577</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" t="n">
-        <v>486474.3343437142</v>
-      </c>
-      <c r="B432" t="n">
-        <v>3482907.455821876</v>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" t="n">
-        <v>486459.5237747008</v>
-      </c>
-      <c r="B433" t="n">
-        <v>3482909.832173175</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" t="n">
-        <v>486444.7132056873</v>
-      </c>
-      <c r="B434" t="n">
-        <v>3482912.208524474</v>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" t="n">
-        <v>486429.9026366738</v>
-      </c>
-      <c r="B435" t="n">
-        <v>3482914.584875774</v>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" t="n">
-        <v>486415.0920676604</v>
-      </c>
-      <c r="B436" t="n">
-        <v>3482916.961227073</v>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" t="n">
-        <v>486400.2814986468</v>
-      </c>
-      <c r="B437" t="n">
-        <v>3482919.337578372</v>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" t="n">
-        <v>486385.4709296334</v>
-      </c>
-      <c r="B438" t="n">
-        <v>3482921.713929671</v>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" t="n">
-        <v>486370.6603606199</v>
-      </c>
-      <c r="B439" t="n">
-        <v>3482924.090280971</v>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" t="n">
-        <v>486355.8497916064</v>
-      </c>
-      <c r="B440" t="n">
-        <v>3482926.46663227</v>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" t="n">
-        <v>486341.039222593</v>
-      </c>
-      <c r="B441" t="n">
-        <v>3482928.842983569</v>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" t="n">
-        <v>486326.2286535795</v>
-      </c>
-      <c r="B442" t="n">
-        <v>3482931.219334868</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" t="n">
-        <v>486311.418084566</v>
-      </c>
-      <c r="B443" t="n">
-        <v>3482933.595686167</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" t="n">
-        <v>486624.8163851482</v>
-      </c>
-      <c r="B444" t="n">
-        <v>3482898.502877898</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" t="n">
-        <v>486610.0058161347</v>
-      </c>
-      <c r="B445" t="n">
-        <v>3482900.879229197</v>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" t="n">
-        <v>486595.1952471212</v>
-      </c>
-      <c r="B446" t="n">
-        <v>3482903.255580496</v>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" t="n">
-        <v>486580.3846781077</v>
-      </c>
-      <c r="B447" t="n">
-        <v>3482905.631931795</v>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" t="n">
-        <v>486565.5741090943</v>
-      </c>
-      <c r="B448" t="n">
-        <v>3482908.008283095</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" t="n">
-        <v>486550.7635400807</v>
-      </c>
-      <c r="B449" t="n">
-        <v>3482910.384634394</v>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" t="n">
-        <v>486535.9529710673</v>
-      </c>
-      <c r="B450" t="n">
-        <v>3482912.760985693</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" t="n">
-        <v>486521.1424020538</v>
-      </c>
-      <c r="B451" t="n">
-        <v>3482915.137336992</v>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" t="n">
-        <v>486506.3318330403</v>
-      </c>
-      <c r="B452" t="n">
-        <v>3482917.513688291</v>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" t="n">
-        <v>486491.5212640269</v>
-      </c>
-      <c r="B453" t="n">
-        <v>3482919.890039591</v>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" t="n">
-        <v>486476.7106950134</v>
-      </c>
-      <c r="B454" t="n">
-        <v>3482922.266390889</v>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" t="n">
-        <v>486461.9001259999</v>
-      </c>
-      <c r="B455" t="n">
-        <v>3482924.642742189</v>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" t="n">
-        <v>486447.0895569865</v>
-      </c>
-      <c r="B456" t="n">
-        <v>3482927.019093488</v>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" t="n">
-        <v>486432.278987973</v>
-      </c>
-      <c r="B457" t="n">
-        <v>3482929.395444787</v>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" t="n">
-        <v>486417.4684189595</v>
-      </c>
-      <c r="B458" t="n">
-        <v>3482931.771796086</v>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" t="n">
-        <v>486402.6578499461</v>
-      </c>
-      <c r="B459" t="n">
-        <v>3482934.148147386</v>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" t="n">
-        <v>486387.8472809326</v>
-      </c>
-      <c r="B460" t="n">
-        <v>3482936.524498685</v>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" t="n">
-        <v>486373.0367119191</v>
-      </c>
-      <c r="B461" t="n">
-        <v>3482938.900849984</v>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" t="n">
-        <v>486358.2261429056</v>
-      </c>
-      <c r="B462" t="n">
-        <v>3482941.277201283</v>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" t="n">
-        <v>486343.4155738921</v>
-      </c>
-      <c r="B463" t="n">
-        <v>3482943.653552582</v>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" t="n">
-        <v>486328.6050048787</v>
-      </c>
-      <c r="B464" t="n">
-        <v>3482946.029903882</v>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" t="n">
-        <v>486313.7944358652</v>
-      </c>
-      <c r="B465" t="n">
-        <v>3482948.40625518</v>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" t="n">
-        <v>486627.1927364473</v>
-      </c>
-      <c r="B466" t="n">
-        <v>3482913.313446911</v>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" t="n">
-        <v>486612.3821674339</v>
-      </c>
-      <c r="B467" t="n">
-        <v>3482915.68979821</v>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" t="n">
-        <v>486597.5715984204</v>
-      </c>
-      <c r="B468" t="n">
-        <v>3482918.06614951</v>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" t="n">
-        <v>486582.7610294069</v>
-      </c>
-      <c r="B469" t="n">
-        <v>3482920.442500809</v>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" t="n">
-        <v>486567.9504603934</v>
-      </c>
-      <c r="B470" t="n">
-        <v>3482922.818852108</v>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" t="n">
-        <v>486553.13989138</v>
-      </c>
-      <c r="B471" t="n">
-        <v>3482925.195203407</v>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" t="n">
-        <v>486538.3293223665</v>
-      </c>
-      <c r="B472" t="n">
-        <v>3482927.571554706</v>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" t="n">
-        <v>486523.518753353</v>
-      </c>
-      <c r="B473" t="n">
-        <v>3482929.947906006</v>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" t="n">
-        <v>486508.7081843395</v>
-      </c>
-      <c r="B474" t="n">
-        <v>3482932.324257305</v>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" t="n">
-        <v>486493.897615326</v>
-      </c>
-      <c r="B475" t="n">
-        <v>3482934.700608604</v>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="n">
-        <v>486479.0870463126</v>
-      </c>
-      <c r="B476" t="n">
-        <v>3482937.076959903</v>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="n">
-        <v>486464.2764772991</v>
-      </c>
-      <c r="B477" t="n">
-        <v>3482939.453311202</v>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="n">
-        <v>486449.4659082856</v>
-      </c>
-      <c r="B478" t="n">
-        <v>3482941.829662501</v>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="n">
-        <v>486434.6553392722</v>
-      </c>
-      <c r="B479" t="n">
-        <v>3482944.206013801</v>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="n">
-        <v>486419.8447702587</v>
-      </c>
-      <c r="B480" t="n">
-        <v>3482946.5823651</v>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" t="n">
-        <v>486405.0342012452</v>
-      </c>
-      <c r="B481" t="n">
-        <v>3482948.958716399</v>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" t="n">
-        <v>486390.2236322318</v>
-      </c>
-      <c r="B482" t="n">
-        <v>3482951.335067698</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" t="n">
-        <v>486375.4130632183</v>
-      </c>
-      <c r="B483" t="n">
-        <v>3482953.711418997</v>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" t="n">
-        <v>486360.6024942048</v>
-      </c>
-      <c r="B484" t="n">
-        <v>3482956.087770297</v>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" t="n">
-        <v>486345.7919251914</v>
-      </c>
-      <c r="B485" t="n">
-        <v>3482958.464121596</v>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" t="n">
-        <v>486330.9813561779</v>
-      </c>
-      <c r="B486" t="n">
-        <v>3482960.840472895</v>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" t="n">
-        <v>486316.1707871644</v>
-      </c>
-      <c r="B487" t="n">
-        <v>3482963.216824194</v>
+        <v>3482943.288774566</v>
       </c>
     </row>
   </sheetData>
